--- a/biology/Médecine/Délétions_de_l'Y/Délétions_de_l'Y.xlsx
+++ b/biology/Médecine/Délétions_de_l'Y/Délétions_de_l'Y.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9l%C3%A9tions_de_l%27Y</t>
+          <t>Délétions_de_l'Y</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La délétion de l'Y est une pathologie entraînant une azoospermie ou une oligozoospermie sévère de type sécrétoire chez l'homme. Elle est responsable de 5 % à 20 % des cas d'azoospermie ou d'oligozoospermie sévère de type sécrétoire.
 Le traitement de cette infertilité d’origine masculine est possible, si des spermatozoïdes sont présents, par micro-injection, avec toutefois le risque de la transmission de la pathologie à tous les garçons.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9l%C3%A9tions_de_l%27Y</t>
+          <t>Délétions_de_l'Y</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Autres noms de la maladie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Stérilité masculine par délétions de l'Y.</t>
         </is>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9l%C3%A9tions_de_l%27Y</t>
+          <t>Délétions_de_l'Y</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Délétion ou microdélétion situé au niveau du locus AZF du chromosome Y.</t>
         </is>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9l%C3%A9tions_de_l%27Y</t>
+          <t>Délétions_de_l'Y</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +588,9 @@
           <t>Incidence &amp; Prévalence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La prévalence de ce syndrome est de 1/2000 à 1/3000 hommes. Cette pathologie semble toucher toutes les populations.
 </t>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9l%C3%A9tions_de_l%27Y</t>
+          <t>Délétions_de_l'Y</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,7 +621,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n’existe aucune particularité physique permettant de suspecter une délétion de l’Y seul, bien que chez certains hommes il puisse y avoir des petits testicules ou un cryptorchidisme.
 </t>
@@ -616,7 +636,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9l%C3%A9tions_de_l%27Y</t>
+          <t>Délétions_de_l'Y</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,15 +656,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spermogramme
-Le tableau ci-dessous définit les différents types d’oligospermie.
-Caryotype standard
-Délétion de la bande q12 au niveau du bras long du chromosome Y mais cette  technique standard ne détecte pas les micro délétions ou si le locus AZF.
-Mais des réarrangements plus complexe du bras long comprenant micro-délétion et duplication peuvent être à l’origine de ce syndrome.
-Biopsie testiculaire
-Met en évidence soit des cellules de Sertoli sans cellule germinale soit un défaut de spermatogenèse avec arrêt de celle-ci à différents stades.
-Génétique
-L’amplification par PCR de larges secteurs du chromosome Y doit être effectué et la recherche spécifique de certains gènes doit être faite (USP9Y, DDX3Y , HSFY , CDY , RBMY , DAZ , ).
+          <t>Spermogramme</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tableau ci-dessous définit les différents types d’oligospermie.
 </t>
         </is>
       </c>
@@ -655,7 +673,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9l%C3%A9tions_de_l%27Y</t>
+          <t>Délétions_de_l'Y</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -670,10 +688,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Diagnostic différentiel</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caryotype standard</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Délétion de la bande q12 au niveau du bras long du chromosome Y mais cette  technique standard ne détecte pas les micro délétions ou si le locus AZF.
+Mais des réarrangements plus complexe du bras long comprenant micro-délétion et duplication peuvent être à l’origine de ce syndrome.
+</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -681,7 +711,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D%C3%A9l%C3%A9tions_de_l%27Y</t>
+          <t>Délétions_de_l'Y</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -696,10 +726,21 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Traitement</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biopsie testiculaire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Met en évidence soit des cellules de Sertoli sans cellule germinale soit un défaut de spermatogenèse avec arrêt de celle-ci à différents stades.
+</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -707,7 +748,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D%C3%A9l%C3%A9tions_de_l%27Y</t>
+          <t>Délétions_de_l'Y</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,12 +763,18 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Mode transmission</t>
+          <t>Diagnostic</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Transmission liée au chromosomeY. Beaucoup de ces micro-délétions sont des mutations de novo.
+          <t>Génétique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’amplification par PCR de larges secteurs du chromosome Y doit être effectué et la recherche spécifique de certains gènes doit être faite (USP9Y, DDX3Y , HSFY , CDY , RBMY , DAZ , ).
 </t>
         </is>
       </c>
@@ -738,7 +785,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D%C3%A9l%C3%A9tions_de_l%27Y</t>
+          <t>Délétions_de_l'Y</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -753,10 +800,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Conseil génétique</t>
+          <t>Diagnostic différentiel</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -764,7 +813,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D%C3%A9l%C3%A9tions_de_l%27Y</t>
+          <t>Délétions_de_l'Y</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -779,14 +828,105 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Délétions_de_l'Y</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9l%C3%A9tions_de_l%27Y</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Mode transmission</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Transmission liée au chromosomeY. Beaucoup de ces micro-délétions sont des mutations de novo.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Délétions_de_l'Y</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9l%C3%A9tions_de_l%27Y</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Conseil génétique</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Délétions_de_l'Y</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9l%C3%A9tions_de_l%27Y</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Site en français de renseignement sur les maladies rares et les médicaments orphelins
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 400003 [1]
-(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [2]
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 400003 
+(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
  Portail de la médecine                     </t>
         </is>
       </c>
